--- a/Mortality/results/zephyr.xlsx
+++ b/Mortality/results/zephyr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad reza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad reza\Desktop\LLM paper experimrnt\dataset\super cleaned and converted to text\Mortality\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DC3660-5209-4EC4-9243-2ED77E8CDC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCDD5A9-2962-4CE3-AF50-16337D54EAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,6 +59,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -406,7 +407,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="B2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
